--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3a-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Sema3a</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3a</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H2">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I2">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J2">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>117.0502719324142</v>
+        <v>49.68840555108056</v>
       </c>
       <c r="R2">
-        <v>1053.452447391728</v>
+        <v>447.195649959725</v>
       </c>
       <c r="S2">
-        <v>0.1039291471654195</v>
+        <v>0.02954920901235251</v>
       </c>
       <c r="T2">
-        <v>0.1239429198924076</v>
+        <v>0.03915279422559294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H3">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I3">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J3">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>51.45614012918333</v>
+        <v>37.56410792445833</v>
       </c>
       <c r="R3">
-        <v>463.10526116265</v>
+        <v>338.076971320125</v>
       </c>
       <c r="S3">
-        <v>0.04568799945324521</v>
+        <v>0.02233900774459945</v>
       </c>
       <c r="T3">
-        <v>0.05448619767142755</v>
+        <v>0.0295992550278623</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,14 +649,14 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
       <c r="E4">
         <v>3</v>
       </c>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H4">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I4">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J4">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>66.77753225382666</v>
+        <v>50.52676492427945</v>
       </c>
       <c r="R4">
-        <v>600.9977902844399</v>
+        <v>454.7408843185151</v>
       </c>
       <c r="S4">
-        <v>0.05929189110264339</v>
+        <v>0.03004777313553919</v>
       </c>
       <c r="T4">
-        <v>0.07070980864980543</v>
+        <v>0.03981339324586558</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H5">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I5">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J5">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>32.71343788498066</v>
+        <v>11.26852463724417</v>
       </c>
       <c r="R5">
-        <v>196.280627309884</v>
+        <v>67.611147823465</v>
       </c>
       <c r="S5">
-        <v>0.02904632038956803</v>
+        <v>0.00670128143726541</v>
       </c>
       <c r="T5">
-        <v>0.02309320570409592</v>
+        <v>0.005919479221961749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.072431333333333</v>
+        <v>0.7828983333333334</v>
       </c>
       <c r="H6">
-        <v>3.217294</v>
+        <v>2.348695</v>
       </c>
       <c r="I6">
-        <v>0.2939553384953704</v>
+        <v>0.1255011010959021</v>
       </c>
       <c r="J6">
-        <v>0.3390161022675017</v>
+        <v>0.1633296112897183</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>63.07001559227555</v>
+        <v>61.98828952817389</v>
       </c>
       <c r="R6">
-        <v>567.63014033048</v>
+        <v>557.894605753565</v>
       </c>
       <c r="S6">
-        <v>0.05599998038449421</v>
+        <v>0.0368638297661455</v>
       </c>
       <c r="T6">
-        <v>0.06678397034976521</v>
+        <v>0.04884468956843575</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>3.36251</v>
       </c>
       <c r="I7">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J7">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>122.3334609381244</v>
+        <v>71.13642280056111</v>
       </c>
       <c r="R7">
-        <v>1101.00114844312</v>
+        <v>640.22780520505</v>
       </c>
       <c r="S7">
-        <v>0.1086201001945097</v>
+        <v>0.04230413518831753</v>
       </c>
       <c r="T7">
-        <v>0.1295372159235119</v>
+        <v>0.05605311124326424</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>3.36251</v>
       </c>
       <c r="I8">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J8">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>53.77866795691667</v>
@@ -948,10 +948,10 @@
         <v>484.0080116122501</v>
       </c>
       <c r="S8">
-        <v>0.04775017609255839</v>
+        <v>0.03198164807746135</v>
       </c>
       <c r="T8">
-        <v>0.05694549038171578</v>
+        <v>0.04237578358353779</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>3.36251</v>
       </c>
       <c r="I9">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J9">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>69.79160747473333</v>
+        <v>72.3366602839189</v>
       </c>
       <c r="R9">
-        <v>628.1244672726</v>
+        <v>651.0299425552702</v>
       </c>
       <c r="S9">
-        <v>0.06196809391729492</v>
+        <v>0.0430179046857859</v>
       </c>
       <c r="T9">
-        <v>0.07390137136458692</v>
+        <v>0.0569988580565614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,10 +1021,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>22</v>
@@ -1042,10 +1042,10 @@
         <v>3.36251</v>
       </c>
       <c r="I10">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J10">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>34.18999383414334</v>
+        <v>16.13258715072833</v>
       </c>
       <c r="R10">
-        <v>205.13996300486</v>
+        <v>96.79552290437002</v>
       </c>
       <c r="S10">
-        <v>0.03035735707496002</v>
+        <v>0.009593891861488747</v>
       </c>
       <c r="T10">
-        <v>0.02413554220163889</v>
+        <v>0.008474624452574131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>3.36251</v>
       </c>
       <c r="I11">
-        <v>0.307223326573222</v>
+        <v>0.1796736943051276</v>
       </c>
       <c r="J11">
-        <v>0.35431795603246</v>
+        <v>0.2338308938613957</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>65.91674808991111</v>
+        <v>88.74555590290778</v>
       </c>
       <c r="R11">
-        <v>593.2507328092001</v>
+        <v>798.71000312617</v>
       </c>
       <c r="S11">
-        <v>0.05852759929389905</v>
+        <v>0.05277611449207407</v>
       </c>
       <c r="T11">
-        <v>0.06979833616100645</v>
+        <v>0.06992851652545815</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,10 +1145,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H12">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I12">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J12">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>158.7780822654067</v>
+        <v>275.0952481830734</v>
       </c>
       <c r="R12">
-        <v>952.66849359244</v>
+        <v>1650.57148909844</v>
       </c>
       <c r="S12">
-        <v>0.1409793450794607</v>
+        <v>0.1635964546801572</v>
       </c>
       <c r="T12">
-        <v>0.1120852821384556</v>
+        <v>0.1445105422495096</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,10 +1207,10 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H13">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I13">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J13">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>69.7999852166875</v>
+        <v>207.9701990363</v>
       </c>
       <c r="R13">
-        <v>418.799911300125</v>
+        <v>1247.8211942178</v>
       </c>
       <c r="S13">
-        <v>0.06197553252945783</v>
+        <v>0.1236778441873457</v>
       </c>
       <c r="T13">
-        <v>0.04927349496005964</v>
+        <v>0.1092490198684696</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>26</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H14">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I14">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J14">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>90.58337357645</v>
+        <v>279.7367470856627</v>
       </c>
       <c r="R14">
-        <v>543.5002414587</v>
+        <v>1678.420482513976</v>
       </c>
       <c r="S14">
-        <v>0.0804291404688313</v>
+        <v>0.1663567087008306</v>
       </c>
       <c r="T14">
-        <v>0.06394499064044681</v>
+        <v>0.146948772381414</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1331,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>22</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H15">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I15">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J15">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>44.37560755676751</v>
+        <v>62.38714137351401</v>
       </c>
       <c r="R15">
-        <v>177.50243022707</v>
+        <v>249.548565494056</v>
       </c>
       <c r="S15">
-        <v>0.03940118183565735</v>
+        <v>0.03710102305927304</v>
       </c>
       <c r="T15">
-        <v>0.02088387524734717</v>
+        <v>0.02184843174337815</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4547475</v>
+        <v>4.334444</v>
       </c>
       <c r="H16">
-        <v>2.909495</v>
+        <v>8.668888000000001</v>
       </c>
       <c r="I16">
-        <v>0.3987488806939563</v>
+        <v>0.6948252045989703</v>
       </c>
       <c r="J16">
-        <v>0.3065823808662761</v>
+        <v>0.6028394948488859</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,338 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>85.55414659756667</v>
+        <v>343.1924148716494</v>
       </c>
       <c r="R16">
-        <v>513.3248795854</v>
+        <v>2059.154489229896</v>
       </c>
       <c r="S16">
-        <v>0.07596368078054912</v>
+        <v>0.2040931739713638</v>
       </c>
       <c r="T16">
-        <v>0.06039473787996687</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.000793</v>
-      </c>
-      <c r="I17">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J17">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>109.1447706666667</v>
-      </c>
-      <c r="N17">
-        <v>327.434312</v>
-      </c>
-      <c r="O17">
-        <v>0.3535542089399963</v>
-      </c>
-      <c r="P17">
-        <v>0.3655959674582361</v>
-      </c>
-      <c r="Q17">
-        <v>0.02885060104622222</v>
-      </c>
-      <c r="R17">
-        <v>0.259655409416</v>
-      </c>
-      <c r="S17">
-        <v>2.561650060646546E-05</v>
-      </c>
-      <c r="T17">
-        <v>3.054950386090895E-05</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H18">
-        <v>0.000793</v>
-      </c>
-      <c r="I18">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J18">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>47.980825</v>
-      </c>
-      <c r="N18">
-        <v>143.942475</v>
-      </c>
-      <c r="O18">
-        <v>0.155424969272891</v>
-      </c>
-      <c r="P18">
-        <v>0.1607186127944892</v>
-      </c>
-      <c r="Q18">
-        <v>0.01268293140833333</v>
-      </c>
-      <c r="R18">
-        <v>0.114146382675</v>
-      </c>
-      <c r="S18">
-        <v>1.126119762956803E-05</v>
-      </c>
-      <c r="T18">
-        <v>1.342978128621197E-05</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H19">
-        <v>0.000793</v>
-      </c>
-      <c r="I19">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J19">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>62.26741999999999</v>
-      </c>
-      <c r="N19">
-        <v>186.80226</v>
-      </c>
-      <c r="O19">
-        <v>0.2017037397794264</v>
-      </c>
-      <c r="P19">
-        <v>0.2085735992386923</v>
-      </c>
-      <c r="Q19">
-        <v>0.01645935468666666</v>
-      </c>
-      <c r="R19">
-        <v>0.14813419218</v>
-      </c>
-      <c r="S19">
-        <v>1.461429065680544E-05</v>
-      </c>
-      <c r="T19">
-        <v>1.742858385316844E-05</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H20">
-        <v>0.000793</v>
-      </c>
-      <c r="I20">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J20">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>30.503993</v>
-      </c>
-      <c r="N20">
-        <v>61.007986</v>
-      </c>
-      <c r="O20">
-        <v>0.09881201864964768</v>
-      </c>
-      <c r="P20">
-        <v>0.06811831517629259</v>
-      </c>
-      <c r="Q20">
-        <v>0.008063222149666666</v>
-      </c>
-      <c r="R20">
-        <v>0.048379332898</v>
-      </c>
-      <c r="S20">
-        <v>7.159349462289568E-06</v>
-      </c>
-      <c r="T20">
-        <v>5.692023210607444E-06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.0002643333333333333</v>
-      </c>
-      <c r="H21">
-        <v>0.000793</v>
-      </c>
-      <c r="I21">
-        <v>7.245423745135779E-05</v>
-      </c>
-      <c r="J21">
-        <v>8.356083376220166E-05</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.81030666666667</v>
-      </c>
-      <c r="N21">
-        <v>176.43092</v>
-      </c>
-      <c r="O21">
-        <v>0.1905050633580386</v>
-      </c>
-      <c r="P21">
-        <v>0.1969935053322898</v>
-      </c>
-      <c r="Q21">
-        <v>0.01554552439555556</v>
-      </c>
-      <c r="R21">
-        <v>0.13990971956</v>
-      </c>
-      <c r="S21">
-        <v>1.380289909622929E-05</v>
-      </c>
-      <c r="T21">
-        <v>1.646094155130486E-05</v>
+        <v>0.1802827286061144</v>
       </c>
     </row>
   </sheetData>
